--- a/placar.xlsx
+++ b/placar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inaci\Documents\GitHub\war\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EF4789-142A-4225-A451-27CD132BEB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BF4220-FAD1-41C5-B0FA-787206AE18B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21228" windowHeight="8880" xr2:uid="{5753AA68-9AB4-4020-B9D2-2DABDFF67FA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5753AA68-9AB4-4020-B9D2-2DABDFF67FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/placar.xlsx
+++ b/placar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inaci\Documents\GitHub\war\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BF4220-FAD1-41C5-B0FA-787206AE18B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3230DF4B-583C-4E8E-95DF-D36968D00074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5753AA68-9AB4-4020-B9D2-2DABDFF67FA3}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="21228" windowHeight="8880" xr2:uid="{5753AA68-9AB4-4020-B9D2-2DABDFF67FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>1</v>

--- a/placar.xlsx
+++ b/placar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inaci\Documents\GitHub\war\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3230DF4B-583C-4E8E-95DF-D36968D00074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8FF6AA-4C1F-4080-9126-726F64800BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="21228" windowHeight="8880" xr2:uid="{5753AA68-9AB4-4020-B9D2-2DABDFF67FA3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5753AA68-9AB4-4020-B9D2-2DABDFF67FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -103,8 +103,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EBBD73DE-D0CC-4044-B342-CECBF9B64EB4}" name="Tabela1" displayName="Tabela1" ref="A1:F7">
-  <autoFilter ref="A1:F7" xr:uid="{EBBD73DE-D0CC-4044-B342-CECBF9B64EB4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EBBD73DE-D0CC-4044-B342-CECBF9B64EB4}" name="Tabela1" displayName="Tabela1" ref="A1:F9">
+  <autoFilter ref="A1:F9" xr:uid="{EBBD73DE-D0CC-4044-B342-CECBF9B64EB4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5BF5AEF8-CC52-4B3E-A768-14B1787A5BA1}" name="Data" totalsRowLabel="Total" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{C24F554A-29B3-49D9-80D8-021CAF8C04BD}" name="Lindemberg" totalsRowFunction="sum"/>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EAF32F-8779-47A8-A569-6D8727875C19}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,6 +569,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45543</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45550</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
